--- a/biology/Botanique/Pythiaceae/Pythiaceae.xlsx
+++ b/biology/Botanique/Pythiaceae/Pythiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Pythiaceae sont une famille de pseudo-champignons de l'ordre des Peronosporales.
 Le genre principal est Pythium, qui comprend de nombreuses espèces phytopathogènes, responsables de la fonte des semis.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (16 novembre 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (16 novembre 2014) :
 genre Aquaperonospora
 genre Cystosiphon
 genre Diasporangium
@@ -527,7 +541,7 @@
 genre Phytopythium
 genre Pythium
 genre Trachysphaera
-Selon ITIS      (16 novembre 2014)[2] :
+Selon ITIS      (16 novembre 2014) :
 genre Phytophthora Bary, 1876
 genre Pythium</t>
         </is>
@@ -557,9 +571,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (16 novembre 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (16 novembre 2014) :
 genre Diasporangium
 genre Elongisporangium
 Elongisporangium anandrum
